--- a/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>novelIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,20 +82,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1000, 1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000, 1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3, 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이도우와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversation</t>
   </si>
 </sst>
 </file>
@@ -445,46 +444,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -492,16 +490,13 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -510,54 +505,77 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1001</v>
+      </c>
+      <c r="G4">
+        <v>1001</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000, 1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>Conversation</t>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,13 +540,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -554,10 +554,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>1001</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Quest.xlsx
@@ -86,15 +86,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베이도우와 대화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Conversation</t>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2, 2</t>
@@ -447,7 +447,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,13 +540,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -554,10 +554,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>1001</v>
@@ -575,7 +575,7 @@
         <v>1000</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
